--- a/analysis_specifications/analysis2_andreas_1.xlsx
+++ b/analysis_specifications/analysis2_andreas_1.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,14 +462,40 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>25</v>
+        <v>795</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All cause mortality</t>
+          <t>Antineoplastic drugs against colorectal cancer</t>
         </is>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>796</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Potential curative surgery for colorectal cancer</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>797</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Radiotherapy against colorectal cancer</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>

--- a/analysis_specifications/analysis2_andreas_1.xlsx
+++ b/analysis_specifications/analysis2_andreas_1.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
